--- a/test/output/平面PLR(場景.緩存).xlsx
+++ b/test/output/平面PLR(場景.緩存).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B85F2A6-FDA0-46C2-90B7-EF5A25E87CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCA9D3-62AD-4506-82AA-4774EC92B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -224,25 +224,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13126299999999999</c:v>
+                  <c:v>0.13095499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.131023</c:v>
+                  <c:v>0.131193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13100400000000001</c:v>
+                  <c:v>0.13084899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13092899999999999</c:v>
+                  <c:v>0.131055</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13112199999999999</c:v>
+                  <c:v>0.13080600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13129399999999999</c:v>
+                  <c:v>0.13086500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13104299999999999</c:v>
+                  <c:v>0.13123099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,25 +887,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.128577</c:v>
+                  <c:v>0.128662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12847</c:v>
+                  <c:v>0.12834499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.128413</c:v>
+                  <c:v>0.12853200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12912000000000001</c:v>
+                  <c:v>0.12914999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.128854</c:v>
+                  <c:v>0.13138</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12919700000000001</c:v>
+                  <c:v>0.13652300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12986600000000001</c:v>
+                  <c:v>0.14293700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1550,25 +1550,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.13733999999999999</c:v>
+                  <c:v>0.13738500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.137684</c:v>
+                  <c:v>0.136966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13793900000000001</c:v>
+                  <c:v>0.137409</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13819899999999999</c:v>
+                  <c:v>0.13756099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.138043</c:v>
+                  <c:v>0.139267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13847100000000001</c:v>
+                  <c:v>0.142017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.139103</c:v>
+                  <c:v>0.14538400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3880,9 +3880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3920,9 +3920,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3955,9 +3955,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3990,9 +4007,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4169,7 +4203,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="C7" sqref="C7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4214,25 +4248,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.13126299999999999</v>
+        <v>0.13095499999999999</v>
       </c>
       <c r="D2">
-        <v>0.131023</v>
+        <v>0.131193</v>
       </c>
       <c r="E2">
-        <v>0.13100400000000001</v>
+        <v>0.13084899999999999</v>
       </c>
       <c r="F2">
-        <v>0.13092899999999999</v>
+        <v>0.131055</v>
       </c>
       <c r="G2">
-        <v>0.13112199999999999</v>
+        <v>0.13080600000000001</v>
       </c>
       <c r="H2">
-        <v>0.13129399999999999</v>
+        <v>0.13086500000000001</v>
       </c>
       <c r="I2">
-        <v>0.13104299999999999</v>
+        <v>0.13123099999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,25 +4358,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.128577</v>
+        <v>0.128662</v>
       </c>
       <c r="D7">
-        <v>0.12847</v>
+        <v>0.12834499999999999</v>
       </c>
       <c r="E7">
-        <v>0.128413</v>
+        <v>0.12853200000000001</v>
       </c>
       <c r="F7">
-        <v>0.12912000000000001</v>
+        <v>0.12914999999999999</v>
       </c>
       <c r="G7">
-        <v>0.128854</v>
+        <v>0.13138</v>
       </c>
       <c r="H7">
-        <v>0.12919700000000001</v>
+        <v>0.13652300000000001</v>
       </c>
       <c r="I7">
-        <v>0.12986600000000001</v>
+        <v>0.14293700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4434,25 +4468,25 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.13733999999999999</v>
+        <v>0.13738500000000001</v>
       </c>
       <c r="D12">
-        <v>0.137684</v>
+        <v>0.136966</v>
       </c>
       <c r="E12">
-        <v>0.13793900000000001</v>
+        <v>0.137409</v>
       </c>
       <c r="F12">
-        <v>0.13819899999999999</v>
+        <v>0.13756099999999999</v>
       </c>
       <c r="G12">
-        <v>0.138043</v>
+        <v>0.139267</v>
       </c>
       <c r="H12">
-        <v>0.13847100000000001</v>
+        <v>0.142017</v>
       </c>
       <c r="I12">
-        <v>0.139103</v>
+        <v>0.14538400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">

--- a/test/output/平面PLR(場景.緩存).xlsx
+++ b/test/output/平面PLR(場景.緩存).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CCA9D3-62AD-4506-82AA-4774EC92B320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98749FC2-1EE0-46EE-B547-2B1362579250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.29972900000000002</c:v>
+                  <c:v>0.27972900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27490700000000001</c:v>
@@ -4202,8 +4202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4274,7 +4274,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0.29972900000000002</v>
+        <v>0.27972900000000001</v>
       </c>
       <c r="D3">
         <v>0.27490700000000001</v>
